--- a/medicine/Sexualité et sexologie/Mes_rendez-vous_avec_Leo/Mes_rendez-vous_avec_Leo.xlsx
+++ b/medicine/Sexualité et sexologie/Mes_rendez-vous_avec_Leo/Mes_rendez-vous_avec_Leo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Mes rendez-vous avec Leo ou Mes rendez-vous avec Léo[1] (Good Luck to You, Leo Grande) est une comédie dramatique britannique réalisée par Sophie Hyde, sur un scénario de Katy Brand, sortie en 2022.
+Mes rendez-vous avec Leo ou Mes rendez-vous avec Léo (Good Luck to You, Leo Grande) est une comédie dramatique britannique réalisée par Sophie Hyde, sur un scénario de Katy Brand, sortie en 2022.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nancy Stokes (Emma Thompson) est enseignante de religion à la retraite. Veuve depuis deux ans, elle n'a jamais connu une vie sexuelle épanouie. Elle décide alors de s'offrir les services d'un escort-boy. Elle réserve une chambre d'hôtel pour y accueillir le jeune Leo Grande. Elle est nerveuse, complexée par son corps et son âge, culpabilisée à l'idée de recourir aux services d'un travailleur du sexe. Lorsqu'elle était enseignante, elle donnait régulièrement à ses élèves des sujets de dissertation portant sur l'éthique de la prostitution. Leo Grande essaie de la mettre à l'aise. 
 Nancy est curieuse de la vie de Leo. Ce dernier lui dit que sa mère ne sait pas quelle profession il exerce, et qu'elle croit qu'il travaille sur une plate-forme pétrolière offshore. Nancy a pour sa part des relations difficiles avec ses propres enfants. Elle n'a eu que son mari comme partenaire sexuel, avec des pratiques sexuelles très routinières, avec des préliminaires très limités, sans jamais dévier de la position du missionnaire, et jamais de sexe oral que son mari jugeait humiliant. 
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Good Luck to You, Leo Grande
 Réalisation : Sophie Hyde
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Emma Thompson (VF : Frédérique Tirmont ; VQ : Élise Bertrand) : Nancy Stokes/Susan Robinson
@@ -636,9 +654,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site Allociné attribue au film une note moyenne de 3,2/5 à partir de l'interprétation de 23 critiques. de presse[2]. Sur le site Rotten Tomatoes, le film obtient un tomatometer de 93% basé sur 218 critiques[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site Allociné attribue au film une note moyenne de 3,2/5 à partir de l'interprétation de 23 critiques. de presse. Sur le site Rotten Tomatoes, le film obtient un tomatometer de 93% basé sur 218 critiques.
 </t>
         </is>
       </c>
@@ -669,11 +689,49 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Nominations
-Golden Globes 2023 : meilleure actrice dans un film musical ou une comédie pour Emma Thompson
-Sélections
-Berlinale 2022 : hors compétition</t>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Golden Globes 2023 : meilleure actrice dans un film musical ou une comédie pour Emma Thompson</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mes_rendez-vous_avec_Leo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mes_rendez-vous_avec_Leo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Berlinale 2022 : hors compétition</t>
         </is>
       </c>
     </row>
